--- a/pred_ohlcv/54_21/2019-10-14 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2648254.259203056</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2599103.759203056</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2664162.263203056</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2665397.454003056</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2619452.322503056</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1548053.013303056</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1543829.998003056</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-444873.597896944</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-447342.1387269307</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-514742.1387269307</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-711939.1017269306</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-14 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2857537.167003057</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2867679.048403056</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2855717.167003057</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2908850.030603056</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2648254.259203056</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2599103.759203056</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2613910.694703056</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2682801.907603056</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2664162.263203056</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2665397.454003056</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2619452.322503056</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2615009.373803056</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2572892.001803056</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2572902.001803056</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2530440.786003056</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2434252.988503056</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2292083.878603056</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1548053.013303056</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1543829.998003056</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-444873.597896944</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-447342.1387269307</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-514742.1387269307</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-711939.1017269306</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
